--- a/Training/moving/mountain to toe touch/3-split.xlsx
+++ b/Training/moving/mountain to toe touch/3-split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6430218289e9316d/Documents/GitHub/UHF-RFID/Training/moving/mountain to toe touch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDDF5E9D-FEAD-4B23-AEDB-6528A940BE0E}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E739D875-9A8C-45B8-B7C5-1B6AFAB34D29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,6 +709,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Mountain RSSI: Run 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1421,10 +1444,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
+              <c:f>Sheet3!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-55</c:v>
                 </c:pt>
@@ -1820,6 +1843,255 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,10 +2590,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
+              <c:f>Sheet2!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-58</c:v>
                 </c:pt>
@@ -2783,6 +3055,15 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-57.720779220779221</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.91820194602442939</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,10 +3424,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-58</c:v>
                 </c:pt>
@@ -3296,6 +3577,180 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,2694 +3759,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$1:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712461320db93</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.64936703704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.649367685182</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.649368055558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.649368703707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.64936935185</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.649369907405</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.649370648149</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.64937175926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.64937259259</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.649373796296</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.649373888889</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.649374259257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.649374722219</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.649375462963</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.649375833331</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.649376296293</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.649376944442</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.649377407404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.64937796296</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.649378148148</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.64937861111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.649379444447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.649380000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.649380185183</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.649381111114</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.649381481482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.649382222226</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.649382592594</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.649383425924</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.649384444441</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.649385092591</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.649385555553</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.64938638889</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.64938722222</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.64938787037</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.649388888887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.649389444443</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.649394537038</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.649395277775</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.64939583333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.649396851855</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.649397592591</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.649398240741</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.649398703703</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.649399074071</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.649400000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.649400752314</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.64940101852</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.649401481482</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.649402129631</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.649402962961</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.649403703705</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.649404444448</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.649404999996</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.649405555552</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.649406388889</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.649406944445</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.649407407407</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.649408055557</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.649408518519</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.649409537036</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.64941027778</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.649411481485</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.649411851853</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.649412870371</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.649413148145</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.649413703701</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.649414629632</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.649415277781</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.649415555556</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.649416111111</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.649416666667</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.649417314817</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.649417685185</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.649419259258</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.649419907408</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.649420925925</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.649421574075</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.649422499999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.64942277778</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.64942361111</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.64942425926</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.649424537034</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.64942509259</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.649425740739</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.649426666663</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.649427037039</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.649427870369</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.649428703706</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.649429444442</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.649429814817</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.649430555553</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.649431111109</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.649431481484</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.649431944446</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.649432500002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.64943287037</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.6494337037</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.649434166669</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.649434629631</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.649434907406</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.649435462961</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.649436018517</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.649436944441</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.649437499997</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.64943824074</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.649439259258</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.649440092595</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.649440833331</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.649441203706</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.649442037036</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.649442314818</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.64944296296</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.649443518516</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.649444351853</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.649445000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.649445277777</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.649446203701</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.649447037038</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.649447592594</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.649447962962</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.649449074073</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.649449537035</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.649450462966</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.649450925928</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.649451574071</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.649452129626</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.649452777776</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.649453148151</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.649453796294</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.649454907405</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.649455648148</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.649456388892</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.649457222222</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.649457685184</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.649458252316</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.649459074077</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.649459722219</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.649460462962</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.649460740744</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.64946148148</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.649461759262</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.649462407404</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.649462685185</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.649463148147</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.649463518515</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.649463888891</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.649464259259</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.649464629627</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.649465000002</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.64946537037</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.649465740738</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.64946601852</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.649466388888</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44277.649466759256</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44277.649467129631</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44277.649467499999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44277.649467870368</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44277.649468240743</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44277.649468611111</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44277.649468981479</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44277.64946990741</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44277.649470185184</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44277.649470462966</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44277.649470833334</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44277.649471203702</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44277.649471851852</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44277.649472314813</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44277.649472962963</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44277.649473425925</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44277.649473796293</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44277.649474166668</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44277.649474814818</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44277.649481504632</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44277.649481967594</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44277.649482615743</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44277.649483449073</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44277.649484004629</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44277.649484652778</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44277.649485578702</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44277.649486041664</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44277.649486134258</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44277.649486504626</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>44277.649486875001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>44277.64948724537</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>44277.649487615738</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>44277.649487986113</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>44277.649488634263</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>44277.649489004631</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>44277.649489467593</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>44277.649489930554</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>44277.649490393516</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>44277.649490671298</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>44277.649490856478</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>44277.649491319447</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44277.649492152777</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>44277.649492523145</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44277.649492986115</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44277.649493634257</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44277.649494560188</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>44277.649495393518</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>44277.649496319442</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>44277.649497152779</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>44277.649497893515</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>44277.649499004627</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>44277.649499930558</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>44277.64950039352</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>44277.649500486114</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>44277.649501319444</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>44277.649501967593</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>44277.649502615743</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>44277.649503726854</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>44277.649504560184</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>44277.649505023146</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>44277.649505578702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
-                <c:pt idx="0">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712401320d4a0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.649366666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.649366851852</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.649367685182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.649368333332</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.649368981482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.649369537037</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.649370277781</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.649371018517</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.649371388892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.649372129628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.649372870372</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.649373518521</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.649374907407</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.649375277775</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.64937648148</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.649377870373</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.649378796297</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.649379166665</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.649379907409</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.649380555558</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.649380833333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.649381759256</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.649382777781</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.649383703705</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.649384259261</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.649385555553</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.649386203702</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.64938703704</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.649388333331</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.649388888887</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.649389629631</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.649389907405</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.649391296298</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.649391944447</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.649392500003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.649392962965</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.649393611115</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.649394537038</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.649395462962</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.649396203706</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.649396666668</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.64939712963</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.649398240741</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.649398518515</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.649399722221</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.649400185182</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.64940065972</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.649402407405</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.649403703705</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.649404074073</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.64940490741</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.64940574074</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.649406203702</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.649406759258</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.649407592595</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.649408252313</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.649409259262</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.649409907404</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.649411018516</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.649412870371</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.649413333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.649414444444</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.649415</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.649416388886</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.649417037035</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.649418425928</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.64941907407</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.649420277776</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.649420648151</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.649421574075</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.649422499999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.649423240742</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.649423703704</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.649424722222</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.649425370371</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.649426111115</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.649426481483</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.649427407407</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.649428055556</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.649428611112</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.649429166668</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.649430092592</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.649430833335</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.649431574071</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.649432314814</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.649433148152</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.649433611114</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.649434166669</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.649434537037</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.649436296299</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.649437870372</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.649438611108</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.649439166664</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.649440370369</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.649440555557</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.649441388887</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.649441944443</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.649442499998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.649443148148</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.649443796297</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.649444166665</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.649444722221</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.649445925927</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.649446481482</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.649447129632</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.649447314812</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.64944814815</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.649448796299</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.649449814817</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.649450185185</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.649451111109</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.649451851852</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.649452592595</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.649453425925</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.649454166669</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.649454629631</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.649455462961</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.649456018517</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.64947527778</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.649475740742</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.649477962965</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.649478333333</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.649479074076</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.649479537038</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.64948010417</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.64948039352</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.649481134256</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.649482245368</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.649482800924</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.64948428241</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.649484930553</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.649485578702</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.649488541669</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.649489467593</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.649489930554</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.649490393516</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.649490949072</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.649491597222</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.649492060184</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.649492523145</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.649492893521</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.649493356483</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.64949502315</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.64949585648</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.649496597223</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.649497430553</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.649497893515</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.649498449071</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.649498819446</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.649500856482</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.649501319444</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.649502245367</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.649502800923</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.64950446759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712171320c120</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.649366296297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.649371111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.649371574073</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.649372314816</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.649373055552</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.649383055556</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.649383888885</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.649384629629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.649386666664</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.649387592595</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.649388148151</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.649389166669</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.649390092593</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.64939027778</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.649390740742</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.649391296298</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.649391944447</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.649392314815</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.649393055559</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.649393425927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.649393981483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.649394814813</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.649395277775</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.649396203706</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.649396574074</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.649401481482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.649402685187</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.649403240743</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.649404444448</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.64940509259</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.649408807869</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.649409351849</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.649410092592</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.649410648148</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.649411296297</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.649412129627</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.649412407409</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.649417407411</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.649417777779</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.649418425928</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.649419629626</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.649420277776</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.649421203707</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.649421759263</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.649422314818</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.649423148148</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.649423981478</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.649435740743</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.649436666667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.649437314816</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.649438333334</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.649439814813</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.649448425924</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.649454629631</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.649455370367</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.649456666666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.649457037034</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.649457870371</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.649458425927</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.649458703701</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.649459351851</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.649459907407</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.649460370369</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.649460925924</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.64946148148</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.649462314817</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.649463055553</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.649469351854</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.649469722222</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.649471481483</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.649472592595</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.649474444443</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.649474537036</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.649475185186</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.649475648148</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.64947611111</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.649476481478</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.649476759259</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.649477222221</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.649477407409</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.649477870371</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.649478425927</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.649478796295</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.649479629632</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.64948010417</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.649480578701</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.64948122685</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.649481689812</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.649482245368</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.649482800924</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.649483449073</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.649484837966</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.649493449077</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.649494467594</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.649494837962</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.6494956713</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.649496319442</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.649496967591</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.649498263891</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.649499837964</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.649500856482</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.649501504631</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.649502245367</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.649502986111</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.649503356479</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.649504189816</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.649505023146</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.649505486108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DD0-4B4D-9BBF-9D10164AD156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6072,6 +3839,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6131,6 +3900,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6168,6 +3941,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior to Mountain Phase: Run 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6196,10 +3987,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
+              <c:f>Sheet4!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="1048576"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6559,10 +4350,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$50</c:f>
+              <c:f>Sheet1!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -6712,6 +4503,180 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6724,68 +4689,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD01-4F5C-8056-3BA37DC19ECF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
@@ -7477,10 +5382,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$1:$D$132</c:f>
+              <c:f>Sheet3!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -7876,6 +5781,255 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7889,7 +6043,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$B$1</c:f>
@@ -8398,10 +6552,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$D$198</c:f>
+              <c:f>Sheet2!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>177</c:v>
                 </c:pt>
@@ -8863,6 +7017,15 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>169.98701298701297</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.683438183708063</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8951,6 +7114,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9010,6 +7175,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9039,14 +7208,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90874</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>203047</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9073,16 +7242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9409,11 +7578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AL57" sqref="AL57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9435,7 +7603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44277.649366296297</v>
       </c>
@@ -9449,7 +7617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44277.649366666665</v>
       </c>
@@ -9463,7 +7631,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44277.649366851852</v>
       </c>
@@ -9505,7 +7673,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44277.649367685182</v>
       </c>
@@ -9533,7 +7701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44277.649368333332</v>
       </c>
@@ -9561,7 +7729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44277.649368981482</v>
       </c>
@@ -9589,7 +7757,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44277.649369537037</v>
       </c>
@@ -9617,7 +7785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44277.649370277781</v>
       </c>
@@ -9645,7 +7813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44277.649371018517</v>
       </c>
@@ -9659,7 +7827,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44277.649371111111</v>
       </c>
@@ -9673,7 +7841,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44277.649371388892</v>
       </c>
@@ -9687,7 +7855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44277.649371574073</v>
       </c>
@@ -9715,7 +7883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44277.649372129628</v>
       </c>
@@ -9729,7 +7897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44277.649372314816</v>
       </c>
@@ -9757,7 +7925,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44277.649372870372</v>
       </c>
@@ -9771,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44277.649373055552</v>
       </c>
@@ -9785,7 +7953,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44277.649373518521</v>
       </c>
@@ -9813,7 +7981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44277.649373796296</v>
       </c>
@@ -9865,7 +8033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44277.649374907407</v>
       </c>
@@ -9879,7 +8047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44277.649375277775</v>
       </c>
@@ -9935,7 +8103,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44277.64937648148</v>
       </c>
@@ -9977,7 +8145,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44277.649377870373</v>
       </c>
@@ -10033,7 +8201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44277.649378796297</v>
       </c>
@@ -10047,7 +8215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44277.649379166665</v>
       </c>
@@ -10075,7 +8243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44277.649379907409</v>
       </c>
@@ -10117,7 +8285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44277.649380555558</v>
       </c>
@@ -10131,7 +8299,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44277.649380833333</v>
       </c>
@@ -10173,7 +8341,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44277.649381759256</v>
       </c>
@@ -10215,7 +8383,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44277.649382777781</v>
       </c>
@@ -10229,7 +8397,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44277.649383055556</v>
       </c>
@@ -10257,7 +8425,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44277.649383703705</v>
       </c>
@@ -10271,7 +8439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44277.649383888885</v>
       </c>
@@ -10285,7 +8453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44277.649384259261</v>
       </c>
@@ -10313,7 +8481,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44277.649384629629</v>
       </c>
@@ -10341,7 +8509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44277.649385555553</v>
       </c>
@@ -10355,7 +8523,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44277.649385555553</v>
       </c>
@@ -10379,7 +8547,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44277.64938574074</v>
       </c>
@@ -10389,7 +8557,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44277.649386203702</v>
       </c>
@@ -10417,7 +8585,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44277.649386666664</v>
       </c>
@@ -10431,7 +8599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44277.64938703704</v>
       </c>
@@ -10459,7 +8627,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44277.649387592595</v>
       </c>
@@ -10487,7 +8655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44277.649388148151</v>
       </c>
@@ -10501,7 +8669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44277.649388333331</v>
       </c>
@@ -10515,7 +8683,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44277.649388888887</v>
       </c>
@@ -10543,7 +8711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44277.649389166669</v>
       </c>
@@ -10571,7 +8739,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44277.649389629631</v>
       </c>
@@ -10585,7 +8753,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44277.649389907405</v>
       </c>
@@ -10599,7 +8767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44277.649390092593</v>
       </c>
@@ -10613,7 +8781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44277.64939027778</v>
       </c>
@@ -10627,7 +8795,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44277.649390740742</v>
       </c>
@@ -10641,7 +8809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44277.649391296298</v>
       </c>
@@ -10655,7 +8823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44277.649391296298</v>
       </c>
@@ -10669,7 +8837,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44277.649391944447</v>
       </c>
@@ -10683,7 +8851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44277.649391944447</v>
       </c>
@@ -10697,7 +8865,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44277.649392314815</v>
       </c>
@@ -10711,7 +8879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44277.649392500003</v>
       </c>
@@ -10725,7 +8893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44277.649392962965</v>
       </c>
@@ -10739,7 +8907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44277.649393055559</v>
       </c>
@@ -10753,7 +8921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44277.649393425927</v>
       </c>
@@ -10767,7 +8935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44277.649393611115</v>
       </c>
@@ -10781,7 +8949,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44277.649393981483</v>
       </c>
@@ -10809,7 +8977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44277.649394537038</v>
       </c>
@@ -10823,7 +8991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44277.649394814813</v>
       </c>
@@ -10837,7 +9005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44277.649395277775</v>
       </c>
@@ -10865,7 +9033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44277.649395462962</v>
       </c>
@@ -10893,7 +9061,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>44277.649396203706</v>
       </c>
@@ -10907,7 +9075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44277.649396203706</v>
       </c>
@@ -10921,7 +9089,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44277.649396574074</v>
       </c>
@@ -10935,7 +9103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44277.649396666668</v>
       </c>
@@ -10949,7 +9117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44277.649396666668</v>
       </c>
@@ -10973,7 +9141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44277.64939712963</v>
       </c>
@@ -11001,7 +9169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44277.649398240741</v>
       </c>
@@ -11029,7 +9197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44277.649398518515</v>
       </c>
@@ -11071,7 +9239,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44277.649399722221</v>
       </c>
@@ -11099,7 +9267,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44277.649400185182</v>
       </c>
@@ -11113,7 +9281,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44277.64940065972</v>
       </c>
@@ -11169,7 +9337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44277.649401481482</v>
       </c>
@@ -11183,7 +9351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44277.649401759256</v>
       </c>
@@ -11207,7 +9375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44277.649402407405</v>
       </c>
@@ -11221,7 +9389,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44277.649402685187</v>
       </c>
@@ -11249,7 +9417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44277.649403240743</v>
       </c>
@@ -11277,7 +9445,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44277.649403703705</v>
       </c>
@@ -11291,7 +9459,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44277.649404074073</v>
       </c>
@@ -11319,7 +9487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44277.649404444448</v>
       </c>
@@ -11333,7 +9501,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44277.64940490741</v>
       </c>
@@ -11361,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44277.64940509259</v>
       </c>
@@ -11389,7 +9557,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44277.64940574074</v>
       </c>
@@ -11403,7 +9571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44277.649406203702</v>
       </c>
@@ -11431,7 +9599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44277.649406759258</v>
       </c>
@@ -11473,7 +9641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44277.649407592595</v>
       </c>
@@ -11501,7 +9669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44277.649408252313</v>
       </c>
@@ -11515,7 +9683,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44277.649408518519</v>
       </c>
@@ -11539,7 +9707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44277.649408807869</v>
       </c>
@@ -11553,7 +9721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44277.649409259262</v>
       </c>
@@ -11567,7 +9735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44277.649409351849</v>
       </c>
@@ -11595,7 +9763,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44277.649409907404</v>
       </c>
@@ -11609,7 +9777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44277.649410092592</v>
       </c>
@@ -11637,7 +9805,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44277.649410648148</v>
       </c>
@@ -11651,7 +9819,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44277.649411018516</v>
       </c>
@@ -11665,7 +9833,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44277.649411296297</v>
       </c>
@@ -11707,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44277.649412129627</v>
       </c>
@@ -11721,7 +9889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44277.649412407409</v>
       </c>
@@ -11749,7 +9917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44277.649412870371</v>
       </c>
@@ -11777,7 +9945,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44277.649413333333</v>
       </c>
@@ -11805,7 +9973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44277.649414444444</v>
       </c>
@@ -11833,7 +10001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44277.649415</v>
       </c>
@@ -11889,7 +10057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>44277.649416388886</v>
       </c>
@@ -11917,7 +10085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44277.649417037035</v>
       </c>
@@ -11945,7 +10113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44277.649417407411</v>
       </c>
@@ -11973,7 +10141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44277.649417777779</v>
       </c>
@@ -11987,7 +10155,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44277.649418425928</v>
       </c>
@@ -12001,7 +10169,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44277.649418425928</v>
       </c>
@@ -12015,7 +10183,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>44277.649418611109</v>
       </c>
@@ -12025,7 +10193,7 @@
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44277.64941907407</v>
       </c>
@@ -12053,7 +10221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44277.649419629626</v>
       </c>
@@ -12067,7 +10235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44277.649419907408</v>
       </c>
@@ -12091,7 +10259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44277.649420277776</v>
       </c>
@@ -12105,7 +10273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44277.649420277776</v>
       </c>
@@ -12119,7 +10287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44277.649420648151</v>
       </c>
@@ -12147,7 +10315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44277.649421203707</v>
       </c>
@@ -12175,7 +10343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44277.649421574075</v>
       </c>
@@ -12189,7 +10357,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44277.649421759263</v>
       </c>
@@ -12203,7 +10371,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44277.649422314818</v>
       </c>
@@ -12231,7 +10399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44277.649422499999</v>
       </c>
@@ -12259,7 +10427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>44277.649423148148</v>
       </c>
@@ -12273,7 +10441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>44277.649423240742</v>
       </c>
@@ -12301,7 +10469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44277.649423703704</v>
       </c>
@@ -12315,7 +10483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44277.649423981478</v>
       </c>
@@ -12357,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>44277.649424722222</v>
       </c>
@@ -12385,7 +10553,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>44277.649425370371</v>
       </c>
@@ -12413,7 +10581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44277.649426111115</v>
       </c>
@@ -12427,7 +10595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44277.649426481483</v>
       </c>
@@ -12469,7 +10637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44277.649427407407</v>
       </c>
@@ -12497,7 +10665,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44277.649428055556</v>
       </c>
@@ -12511,7 +10679,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44277.649428611112</v>
       </c>
@@ -12539,7 +10707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44277.6494287963</v>
       </c>
@@ -12549,7 +10717,7 @@
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44277.649429166668</v>
       </c>
@@ -12591,7 +10759,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44277.649430092592</v>
       </c>
@@ -12619,7 +10787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44277.649430833335</v>
       </c>
@@ -12647,7 +10815,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>44277.649431111109</v>
       </c>
@@ -12671,7 +10839,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44277.649431574071</v>
       </c>
@@ -12699,7 +10867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44277.649432314814</v>
       </c>
@@ -12741,7 +10909,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44277.649433148152</v>
       </c>
@@ -12755,7 +10923,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>44277.649433611114</v>
       </c>
@@ -12783,7 +10951,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44277.649434166669</v>
       </c>
@@ -12811,7 +10979,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44277.649434537037</v>
       </c>
@@ -12867,7 +11035,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44277.649435740743</v>
       </c>
@@ -12895,7 +11063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44277.649436296299</v>
       </c>
@@ -12909,7 +11077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44277.649436666667</v>
       </c>
@@ -12937,7 +11105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>44277.649437314816</v>
       </c>
@@ -12965,7 +11133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44277.649437870372</v>
       </c>
@@ -12993,7 +11161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44277.649438333334</v>
       </c>
@@ -13007,7 +11175,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44277.649438611108</v>
       </c>
@@ -13021,7 +11189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44277.649439166664</v>
       </c>
@@ -13049,7 +11217,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44277.649439537039</v>
       </c>
@@ -13059,7 +11227,7 @@
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44277.649439814813</v>
       </c>
@@ -13087,7 +11255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44277.649440370369</v>
       </c>
@@ -13101,7 +11269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44277.649440555557</v>
       </c>
@@ -13143,7 +11311,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44277.649441388887</v>
       </c>
@@ -13157,7 +11325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44277.649441944443</v>
       </c>
@@ -13199,7 +11367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44277.649442499998</v>
       </c>
@@ -13213,7 +11381,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44277.649442592592</v>
       </c>
@@ -13237,7 +11405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44277.649443148148</v>
       </c>
@@ -13265,7 +11433,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44277.649443796297</v>
       </c>
@@ -13279,7 +11447,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44277.649444166665</v>
       </c>
@@ -13307,7 +11475,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44277.649444722221</v>
       </c>
@@ -13349,7 +11517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44277.649445925927</v>
       </c>
@@ -13377,7 +11545,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44277.649446481482</v>
       </c>
@@ -13405,7 +11573,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>44277.649447129632</v>
       </c>
@@ -13419,7 +11587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>44277.649447314812</v>
       </c>
@@ -13461,7 +11629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44277.64944814815</v>
       </c>
@@ -13475,7 +11643,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44277.649448425924</v>
       </c>
@@ -13489,7 +11657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44277.649448796299</v>
       </c>
@@ -13531,7 +11699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44277.649449814817</v>
       </c>
@@ -13545,7 +11713,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44277.649450185185</v>
       </c>
@@ -13587,7 +11755,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44277.649451111109</v>
       </c>
@@ -13615,7 +11783,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>44277.649451851852</v>
       </c>
@@ -13643,7 +11811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44277.649452592595</v>
       </c>
@@ -13685,7 +11853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>44277.649453425925</v>
       </c>
@@ -13713,7 +11881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>44277.649454166669</v>
       </c>
@@ -13727,7 +11895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44277.649454351849</v>
       </c>
@@ -13737,7 +11905,7 @@
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
     </row>
-    <row r="313" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>44277.649454629631</v>
       </c>
@@ -13751,7 +11919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44277.649454629631</v>
       </c>
@@ -13779,7 +11947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44277.649455370367</v>
       </c>
@@ -13793,7 +11961,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>44277.649455462961</v>
       </c>
@@ -13821,7 +11989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44277.649456018517</v>
       </c>
@@ -13849,7 +12017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>44277.649456666666</v>
       </c>
@@ -13863,7 +12031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44277.649457037034</v>
       </c>
@@ -13905,7 +12073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>44277.649457870371</v>
       </c>
@@ -13933,7 +12101,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44277.649458425927</v>
       </c>
@@ -13947,7 +12115,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>44277.649458703701</v>
       </c>
@@ -13975,7 +12143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>44277.649459351851</v>
       </c>
@@ -14003,7 +12171,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44277.649459907407</v>
       </c>
@@ -14017,7 +12185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>44277.649460370369</v>
       </c>
@@ -14059,7 +12227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>44277.649460925924</v>
       </c>
@@ -14073,7 +12241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44277.64946148148</v>
       </c>
@@ -14115,7 +12283,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44277.649462314817</v>
       </c>
@@ -14157,7 +12325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>44277.649463055553</v>
       </c>
@@ -14283,7 +12451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>44277.649465925926</v>
       </c>
@@ -14419,7 +12587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>44277.649469351854</v>
       </c>
@@ -14433,7 +12601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>44277.649469722222</v>
       </c>
@@ -14517,7 +12685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>44277.649471481483</v>
       </c>
@@ -14559,7 +12727,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>44277.649472592595</v>
       </c>
@@ -14629,7 +12797,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44277.649474444443</v>
       </c>
@@ -14643,7 +12811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44277.649474537036</v>
       </c>
@@ -14671,7 +12839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>44277.649475185186</v>
       </c>
@@ -14685,7 +12853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>44277.64947527778</v>
       </c>
@@ -14699,7 +12867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>44277.649475648148</v>
       </c>
@@ -14713,7 +12881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>44277.649475740742</v>
       </c>
@@ -14727,7 +12895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>44277.64947611111</v>
       </c>
@@ -14741,7 +12909,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>44277.649476481478</v>
       </c>
@@ -14755,7 +12923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>44277.649476759259</v>
       </c>
@@ -14769,7 +12937,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44277.649477222221</v>
       </c>
@@ -14783,7 +12951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>44277.649477222221</v>
       </c>
@@ -14793,7 +12961,7 @@
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
     </row>
-    <row r="389" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44277.649477407409</v>
       </c>
@@ -14807,7 +12975,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44277.649477870371</v>
       </c>
@@ -14821,7 +12989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44277.649477962965</v>
       </c>
@@ -14835,7 +13003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44277.649478333333</v>
       </c>
@@ -14849,7 +13017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44277.649478425927</v>
       </c>
@@ -14863,7 +13031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44277.649478796295</v>
       </c>
@@ -14877,7 +13045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>44277.649479074076</v>
       </c>
@@ -14891,7 +13059,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44277.649479537038</v>
       </c>
@@ -14905,7 +13073,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44277.649479629632</v>
       </c>
@@ -14919,7 +13087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44277.64948010417</v>
       </c>
@@ -14933,7 +13101,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44277.64948010417</v>
       </c>
@@ -14947,7 +13115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44277.64948039352</v>
       </c>
@@ -14961,7 +13129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44277.649480578701</v>
       </c>
@@ -14975,7 +13143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44277.649481134256</v>
       </c>
@@ -14989,7 +13157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44277.64948122685</v>
       </c>
@@ -15017,7 +13185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44277.649481689812</v>
       </c>
@@ -15045,7 +13213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44277.649482245368</v>
       </c>
@@ -15059,7 +13227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44277.649482245368</v>
       </c>
@@ -15087,7 +13255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44277.649482800924</v>
       </c>
@@ -15101,7 +13269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44277.649482800924</v>
       </c>
@@ -15115,7 +13283,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>44277.649483449073</v>
       </c>
@@ -15143,7 +13311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>44277.649483726855</v>
       </c>
@@ -15167,7 +13335,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>44277.64948428241</v>
       </c>
@@ -15195,7 +13363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44277.649484837966</v>
       </c>
@@ -15209,7 +13377,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44277.649484930553</v>
       </c>
@@ -15223,7 +13391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44277.649485578702</v>
       </c>
@@ -15251,7 +13419,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44277.64948576389</v>
       </c>
@@ -15359,7 +13527,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>44277.649488541669</v>
       </c>
@@ -15401,7 +13569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>44277.649489004631</v>
       </c>
@@ -15425,7 +13593,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>44277.649489467593</v>
       </c>
@@ -15453,7 +13621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44277.649489930554</v>
       </c>
@@ -15481,7 +13649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44277.649490393516</v>
       </c>
@@ -15523,7 +13691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44277.649490949072</v>
       </c>
@@ -15551,7 +13719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>44277.649491597222</v>
       </c>
@@ -15565,7 +13733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44277.649492060184</v>
       </c>
@@ -15593,7 +13761,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44277.649492523145</v>
       </c>
@@ -15621,7 +13789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44277.649492893521</v>
       </c>
@@ -15649,7 +13817,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>44277.649493356483</v>
       </c>
@@ -15663,7 +13831,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>44277.649493449077</v>
       </c>
@@ -15691,7 +13859,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44277.649494467594</v>
       </c>
@@ -15719,7 +13887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44277.649494745368</v>
       </c>
@@ -15729,7 +13897,7 @@
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
     </row>
-    <row r="457" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44277.649494837962</v>
       </c>
@@ -15743,7 +13911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44277.64949502315</v>
       </c>
@@ -15771,7 +13939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44277.6494956713</v>
       </c>
@@ -15785,7 +13953,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>44277.64949585648</v>
       </c>
@@ -15813,7 +13981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44277.649496319442</v>
       </c>
@@ -15827,7 +13995,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>44277.649496597223</v>
       </c>
@@ -15841,7 +14009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44277.649496967591</v>
       </c>
@@ -15869,7 +14037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44277.649497430553</v>
       </c>
@@ -15883,7 +14051,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>44277.649497893515</v>
       </c>
@@ -15911,7 +14079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>44277.649498171297</v>
       </c>
@@ -15921,7 +14089,7 @@
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
     </row>
-    <row r="471" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44277.649498263891</v>
       </c>
@@ -15935,7 +14103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>44277.649498449071</v>
       </c>
@@ -15949,7 +14117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>44277.649498819446</v>
       </c>
@@ -15977,7 +14145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44277.649499837964</v>
       </c>
@@ -16005,7 +14173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44277.649500208332</v>
       </c>
@@ -16029,7 +14197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>44277.649500486114</v>
       </c>
@@ -16053,7 +14221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44277.649500856482</v>
       </c>
@@ -16067,7 +14235,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>44277.649500856482</v>
       </c>
@@ -16081,7 +14249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>44277.649501319444</v>
       </c>
@@ -16109,7 +14277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>44277.649501504631</v>
       </c>
@@ -16137,7 +14305,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>44277.649502245367</v>
       </c>
@@ -16151,7 +14319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>44277.649502245367</v>
       </c>
@@ -16179,7 +14347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>44277.649502800923</v>
       </c>
@@ -16193,7 +14361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>44277.649502986111</v>
       </c>
@@ -16207,7 +14375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>44277.649503356479</v>
       </c>
@@ -16235,7 +14403,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>44277.649504189816</v>
       </c>
@@ -16249,7 +14417,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>44277.64950446759</v>
       </c>
@@ -16291,7 +14459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>44277.649505023146</v>
       </c>
@@ -16305,7 +14473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>44277.649505300928</v>
       </c>
@@ -16315,7 +14483,7 @@
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
     </row>
-    <row r="500" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>44277.649505486108</v>
       </c>
@@ -16344,18 +14512,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="e2001d8712461320db93"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{33AC8EC4-A77F-42E9-8B1D-178BBA30F9A3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{005D05EB-2606-4931-91A9-0F461A177E3A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{CDECAE44-FC54-4E60-9306-FB964E66CA97}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{43B5B8AB-49B1-43D2-B5F0-A5A0FFDC1F46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{22BB1328-BF04-42DA-893D-983272BBF50A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{E70D90C0-F280-4578-A1C3-F4AE4AE9DD31}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{52DE6BEA-3156-42D1-8389-5810BCAC7139}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{5F245E37-08D5-4B98-9D13-1064C5341754}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16364,105 +14526,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC26750B-BD47-411C-A0C4-877562E69E36}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F1" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1" t="e">
+        <f>AVERAGE(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>STDEV(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>STDEV(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -16799,9 +14985,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection sqref="A1:D215"/>
     </sheetView>
   </sheetViews>
@@ -20214,17 +18400,101 @@
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A214 A216:A277" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B214 B216:B277" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C214 C216:C277" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D214 D216:D277" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A214 A216:A292" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B214 B216:B292" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C214 C216:C292" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D214 D216:D292" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20234,7 +18504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection sqref="A1:D154"/>
     </sheetView>
   </sheetViews>
@@ -22727,10 +20997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:D126"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24379,12 +22649,138 @@
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A126" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B126" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C126" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D126" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A147" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B147" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C147" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D147" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
